--- a/resources/DataProfileMenu.xlsx
+++ b/resources/DataProfileMenu.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/G2Lab/FinalProject/QuotaAppTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2BAF34-871D-5741-B84C-F86516292E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F5C15C-8A0C-6041-BEAF-C1E45C5C3BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
   </bookViews>
   <sheets>
     <sheet name="Change Full Name" sheetId="1" r:id="rId1"/>
     <sheet name="Change Email" sheetId="2" r:id="rId2"/>
     <sheet name="Change Phone Number" sheetId="6" r:id="rId3"/>
     <sheet name="Change Password" sheetId="4" r:id="rId4"/>
+    <sheet name="Logout" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="64">
   <si>
     <t>password</t>
   </si>
@@ -120,13 +121,121 @@
   </si>
   <si>
     <t>responsebody</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>statusCodeRequest</t>
+  </si>
+  <si>
+    <t>responseBodyRequest</t>
+  </si>
+  <si>
+    <t>negative case - invalid phone number and password</t>
+  </si>
+  <si>
+    <t>not a number</t>
+  </si>
+  <si>
+    <t>012345678</t>
+  </si>
+  <si>
+    <t>negative case - invalid phone number</t>
+  </si>
+  <si>
+    <t>4bsurd d4t4</t>
+  </si>
+  <si>
+    <t>Zanuar30@@</t>
+  </si>
+  <si>
+    <t>negative case - invalid password</t>
+  </si>
+  <si>
+    <t>+6281252930398</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>Unauthorized</t>
+  </si>
+  <si>
+    <t>positif case - valid phone number and password</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>negative case - invalid phone number format (not numerical)</t>
+  </si>
+  <si>
+    <t>negative case - invalid phone number format (exceed 12 characters)</t>
+  </si>
+  <si>
+    <t>+628123456789101112</t>
+  </si>
+  <si>
+    <t>negative case - invalid phone number (outside Indonesia)</t>
+  </si>
+  <si>
+    <t>+601300808888</t>
+  </si>
+  <si>
+    <t>negative case - invalid phone number (unregistered number)</t>
+  </si>
+  <si>
+    <t>+6281234567890</t>
+  </si>
+  <si>
+    <t>negative case - invalid phone number (unverified number)</t>
+  </si>
+  <si>
+    <t>+6285785161197</t>
+  </si>
+  <si>
+    <t>negative case - invalid password (no lower case alphabetical character)</t>
+  </si>
+  <si>
+    <t>PASSWORD12345@@</t>
+  </si>
+  <si>
+    <t>negative case - invalid password (no upper case alphabetical character)</t>
+  </si>
+  <si>
+    <t>password12345@@</t>
+  </si>
+  <si>
+    <t>negative case - invalid password (no special character)</t>
+  </si>
+  <si>
+    <t>Password12345</t>
+  </si>
+  <si>
+    <t>negative case - invalid password (no numerical character)</t>
+  </si>
+  <si>
+    <t>PasswordSalah@@</t>
+  </si>
+  <si>
+    <t>negative case - invalid password (below 8 characters)</t>
+  </si>
+  <si>
+    <t>Pwd123@</t>
+  </si>
+  <si>
+    <t>negative case - invalid password (exceed 16 characters)</t>
+  </si>
+  <si>
+    <t>PasswordMelebihi16Karakter@@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,8 +249,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +267,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD5967"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,12 +316,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9959BB-4BD4-1645-834F-8040D5B979C6}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1306,4 +1461,298 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD92308A-CB7B-7B41-82FA-7A29955FA184}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/DataProfileMenu.xlsx
+++ b/resources/DataProfileMenu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/G2Lab/FinalProject/QuotaAppTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F5C15C-8A0C-6041-BEAF-C1E45C5C3BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D112ECF-19F6-944A-B8B2-46E7FB63760D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="4" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
   </bookViews>
   <sheets>
     <sheet name="Change Full Name" sheetId="1" r:id="rId1"/>
@@ -171,12 +171,6 @@
     <t>negative case - invalid phone number format (not numerical)</t>
   </si>
   <si>
-    <t>negative case - invalid phone number format (exceed 12 characters)</t>
-  </si>
-  <si>
-    <t>+628123456789101112</t>
-  </si>
-  <si>
     <t>negative case - invalid phone number (outside Indonesia)</t>
   </si>
   <si>
@@ -229,6 +223,12 @@
   </si>
   <si>
     <t>PasswordMelebihi16Karakter@@</t>
+  </si>
+  <si>
+    <t>negative case - invalid phone number format (exceed 15 characters)</t>
+  </si>
+  <si>
+    <t>+628123456789101112222</t>
   </si>
 </sst>
 </file>
@@ -1468,13 +1468,13 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>36</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>36</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>36</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>36</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>39</v>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>39</v>
@@ -1686,13 +1686,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>39</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>39</v>
@@ -1720,13 +1720,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>39</v>
@@ -1737,13 +1737,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>39</v>

--- a/resources/DataProfileMenu.xlsx
+++ b/resources/DataProfileMenu.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/G2Lab/FinalProject/QuotaAppTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D112ECF-19F6-944A-B8B2-46E7FB63760D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1317943D-4ACE-414E-A476-494E8296251E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="4" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
   </bookViews>
   <sheets>
-    <sheet name="Change Full Name" sheetId="1" r:id="rId1"/>
-    <sheet name="Change Email" sheetId="2" r:id="rId2"/>
-    <sheet name="Change Phone Number" sheetId="6" r:id="rId3"/>
-    <sheet name="Change Password" sheetId="4" r:id="rId4"/>
-    <sheet name="Logout" sheetId="8" r:id="rId5"/>
+    <sheet name="Edit User" sheetId="1" r:id="rId1"/>
+    <sheet name="Change Password" sheetId="4" r:id="rId2"/>
+    <sheet name="Logout" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
   <si>
     <t>password</t>
   </si>
@@ -63,9 +61,6 @@
     <t>fullname</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>phonenumber</t>
   </si>
   <si>
@@ -105,12 +100,6 @@
     <t>timeout otp code</t>
   </si>
   <si>
-    <t>wrong email</t>
-  </si>
-  <si>
-    <t>blank email</t>
-  </si>
-  <si>
     <t>wrong new password</t>
   </si>
   <si>
@@ -138,13 +127,7 @@
     <t>not a number</t>
   </si>
   <si>
-    <t>012345678</t>
-  </si>
-  <si>
     <t>negative case - invalid phone number</t>
-  </si>
-  <si>
-    <t>4bsurd d4t4</t>
   </si>
   <si>
     <t>Zanuar30@@</t>
@@ -278,13 +261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFD5967"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFA827F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,11 +299,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -331,8 +313,11 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -340,15 +325,18 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFA827F"/>
+      <color rgb="FFFD5967"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -660,7 +648,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -691,15 +679,15 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -710,7 +698,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -732,7 +720,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -743,7 +731,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -754,7 +742,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -776,7 +764,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -787,7 +775,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -797,8 +785,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
+      <c r="A11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -808,8 +796,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
+      <c r="A12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -819,7 +807,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2"/>
@@ -830,7 +818,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2"/>
@@ -841,8 +829,8 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
+      <c r="A15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -852,8 +840,8 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
+      <c r="A16" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -869,394 +857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7189700-26BE-B342-926E-EF81568121D9}">
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8D8A7E-F8A4-4F41-BE15-873B0010E036}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865360DB-CC0A-7D49-8F52-9B29FD828225}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1275,27 +880,27 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1306,7 +911,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1328,7 +933,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1339,7 +944,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1350,7 +955,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1372,7 +977,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1383,7 +988,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1393,8 +998,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
+      <c r="A11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1404,8 +1009,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
+      <c r="A12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1415,7 +1020,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2"/>
@@ -1426,7 +1031,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2"/>
@@ -1437,8 +1042,8 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
+      <c r="A15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1448,8 +1053,8 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
+      <c r="A16" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1463,12 +1068,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD92308A-CB7B-7B41-82FA-7A29955FA184}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1481,275 +1086,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="E8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="B16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>40</v>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/resources/DataProfileMenu.xlsx
+++ b/resources/DataProfileMenu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/G2Lab/FinalProject/QuotaAppTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD79B2A7-D448-894F-8CA5-C7233CA4B4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59128C53-044F-DD4A-B1A5-E6B565C01BDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
   </bookViews>
   <sheets>
     <sheet name="Edit User" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="131">
   <si>
     <t>password</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>+62ABC!@#%$</t>
+  </si>
+  <si>
+    <t>Phone Number not registered</t>
+  </si>
+  <si>
+    <t>Your account has been deleted</t>
   </si>
 </sst>
 </file>
@@ -3402,16 +3408,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED0FB69-EF46-EE4F-AB6D-E661F04C0FA2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3439,7 +3443,7 @@
         <v>51</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3453,7 +3457,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3467,7 +3471,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3481,7 +3485,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3523,7 +3527,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3537,7 +3541,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3551,7 +3555,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3565,7 +3569,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3579,7 +3583,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/resources/DataProfileMenu.xlsx
+++ b/resources/DataProfileMenu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/G2Lab/FinalProject/QuotaAppTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59128C53-044F-DD4A-B1A5-E6B565C01BDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0BC68D-82BF-EA47-9590-CB5F3A0D6BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
   </bookViews>
   <sheets>
     <sheet name="Edit User" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="133">
   <si>
     <t>password</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Zanuar</t>
   </si>
   <si>
-    <t>+6285785161797</t>
-  </si>
-  <si>
     <t>negative case - invalid otp code, status otp code</t>
   </si>
   <si>
@@ -419,16 +416,25 @@
     <t>+628125293039812</t>
   </si>
   <si>
-    <t>+!@#$%^&amp;*()_</t>
-  </si>
-  <si>
-    <t>+62ABC!@#%$</t>
-  </si>
-  <si>
     <t>Phone Number not registered</t>
   </si>
   <si>
     <t>Your account has been deleted</t>
+  </si>
+  <si>
+    <t>+6281ABC920298</t>
+  </si>
+  <si>
+    <t>+62ABCDEF30298</t>
+  </si>
+  <si>
+    <t>+6281252930399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Full name must be all Alphabetic </t>
+  </si>
+  <si>
+    <t>Length nama user must be less than 3 character</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -584,7 +590,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -908,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9959BB-4BD4-1645-834F-8040D5B979C6}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,7 +924,7 @@
     <col min="3" max="3" width="23.5" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
@@ -954,13 +959,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -974,13 +979,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -991,16 +996,16 @@
         <v>123456789</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1011,15 +1016,17 @@
         <v>123456789</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="21" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
@@ -1032,13 +1039,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1052,12 +1059,14 @@
         <v>9</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
@@ -1067,16 +1076,16 @@
         <v>73</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1087,71 +1096,77 @@
         <v>73</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
@@ -1161,16 +1176,16 @@
         <v>73</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1184,13 +1199,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1204,13 +1219,13 @@
         <v>38</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1224,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>51</v>
@@ -1233,7 +1248,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>73</v>
@@ -1242,7 +1257,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>51</v>
@@ -1260,7 +1275,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>51</v>
@@ -1369,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>51</v>
@@ -1416,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>51</v>
@@ -1463,7 +1478,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>51</v>
@@ -1504,13 +1519,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>17</v>
@@ -1557,7 +1572,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>51</v>
@@ -1604,7 +1619,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>51</v>
@@ -1651,7 +1666,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>51</v>
@@ -1698,7 +1713,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>51</v>
@@ -1745,7 +1760,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>51</v>
@@ -1792,7 +1807,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>51</v>
@@ -1833,13 +1848,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>17</v>
@@ -1851,10 +1866,10 @@
         <v>56</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>53</v>
@@ -1880,13 +1895,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>17</v>
@@ -1898,7 +1913,7 @@
         <v>56</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>58</v>
@@ -1927,13 +1942,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>17</v>
@@ -1948,7 +1963,7 @@
         <v>57</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>53</v>
@@ -1974,13 +1989,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>17</v>
@@ -2021,13 +2036,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>17</v>
@@ -2039,7 +2054,7 @@
         <v>56</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>58</v>
@@ -2068,13 +2083,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>17</v>
@@ -2086,7 +2101,7 @@
         <v>56</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>58</v>
@@ -2115,13 +2130,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>17</v>
@@ -2133,7 +2148,7 @@
         <v>56</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>58</v>
@@ -2162,13 +2177,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>17</v>
@@ -2183,7 +2198,7 @@
         <v>57</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>53</v>
@@ -2209,13 +2224,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>17</v>
@@ -2227,7 +2242,7 @@
         <v>56</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>58</v>
@@ -2256,13 +2271,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>17</v>
@@ -2309,7 +2324,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>17</v>
@@ -2327,7 +2342,7 @@
         <v>53</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>63</v>
@@ -2350,13 +2365,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>17</v>
@@ -2397,13 +2412,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>17</v>
@@ -2444,13 +2459,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>17</v>
@@ -2491,13 +2506,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>17</v>
@@ -2538,13 +2553,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>17</v>
@@ -2585,13 +2600,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>17</v>
@@ -2618,7 +2633,7 @@
         <v>59</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M28" s="15" t="s">
         <v>60</v>
@@ -2632,13 +2647,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>17</v>
@@ -2679,13 +2694,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>17</v>
@@ -2726,13 +2741,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>17</v>
@@ -2773,13 +2788,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>17</v>
@@ -2820,13 +2835,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>17</v>
@@ -2867,13 +2882,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>17</v>
@@ -2903,7 +2918,7 @@
         <v>60</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N34" s="11" t="s">
         <v>51</v>
@@ -2914,13 +2929,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>17</v>
@@ -2961,13 +2976,13 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>17</v>
@@ -3008,13 +3023,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>17</v>
@@ -3055,13 +3070,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>17</v>
@@ -3408,7 +3423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED0FB69-EF46-EE4F-AB6D-E661F04C0FA2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3443,7 +3460,7 @@
         <v>51</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3457,7 +3474,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3471,7 +3488,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3479,13 +3496,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3493,27 +3510,27 @@
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3521,13 +3538,13 @@
         <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3541,7 +3558,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3555,7 +3572,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3569,7 +3586,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3583,7 +3600,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/resources/DataProfileMenu.xlsx
+++ b/resources/DataProfileMenu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/G2Lab/FinalProject/QuotaAppTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0BC68D-82BF-EA47-9590-CB5F3A0D6BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F207A8F3-C854-C54A-89BB-1E188E65BC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
   </bookViews>
   <sheets>
     <sheet name="Edit User" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9959BB-4BD4-1645-834F-8040D5B979C6}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865360DB-CC0A-7D49-8F52-9B29FD828225}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1672,7 +1672,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>53</v>
@@ -1719,7 +1719,7 @@
         <v>51</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>53</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>53</v>

--- a/resources/DataProfileMenu.xlsx
+++ b/resources/DataProfileMenu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/G2Lab/FinalProject/QuotaAppTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F207A8F3-C854-C54A-89BB-1E188E65BC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0777473F-AA32-3F43-972C-F975A870C702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
   </bookViews>
   <sheets>
     <sheet name="Edit User" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="135">
   <si>
     <t>password</t>
   </si>
@@ -77,9 +77,6 @@
     <t>negative case - invalid password</t>
   </si>
   <si>
-    <t>+6281252930398</t>
-  </si>
-  <si>
     <t>401</t>
   </si>
   <si>
@@ -359,9 +356,6 @@
     <t>testchangepassword.gmail.com</t>
   </si>
   <si>
-    <t>testchangepassword@gmail.com</t>
-  </si>
-  <si>
     <t>negative case - invalid full name (below 3 characters)</t>
   </si>
   <si>
@@ -435,6 +429,18 @@
   </si>
   <si>
     <t>Length nama user must be less than 3 character</t>
+  </si>
+  <si>
+    <t>testchangepasswordbackend@gmail.com</t>
+  </si>
+  <si>
+    <t>+6281252930396</t>
+  </si>
+  <si>
+    <t>+6281252930397</t>
+  </si>
+  <si>
+    <t>+6281252930451</t>
   </si>
 </sst>
 </file>
@@ -914,7 +920,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,13 +939,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>3</v>
@@ -950,7 +956,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="21">
         <v>123456789</v>
@@ -959,18 +965,18 @@
         <v>9</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="21">
         <v>123456789</v>
@@ -979,306 +985,306 @@
         <v>9</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="21">
         <v>123456789</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="21">
         <v>123456789</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="D16" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D18" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="21"/>
     </row>
@@ -1306,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865360DB-CC0A-7D49-8F52-9B29FD828225}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1337,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>6</v>
@@ -1346,81 +1352,81 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1431,1695 +1437,1695 @@
         <v>9</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="M5" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="F11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="14">
         <v>200</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="I12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="L12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="14">
         <v>200</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="L13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="14">
         <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="H14" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="L14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="14" t="s">
+      <c r="L15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="M15" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>81</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="L16" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>83</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="L17" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="L18" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="H19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="L19" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="L20" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="M21" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="L22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="H23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="I23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>59</v>
-      </c>
       <c r="L23" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="H24" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="I24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="20" t="s">
+      <c r="L24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="N24" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="H25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="I25" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="20" t="s">
+      <c r="L25" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L25" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="M25" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L26" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="M26" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="N27" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="14" t="s">
+      <c r="M28" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="N28" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="N29" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K30" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="N30" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="N31" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="N32" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L33" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="M33" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L34" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="M34" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K35" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L35" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="M35" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K36" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L36" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="M36" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K37" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L37" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="M37" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K38" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L38" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="M38" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{6083684D-03E3-F54A-946D-CCBA450E3CCB}"/>
-    <hyperlink ref="C5:C10" r:id="rId2" display="testchangepassword@gmail.com" xr:uid="{BB0E583D-095C-EB4B-BDBE-A596459C5008}"/>
-    <hyperlink ref="C12:C38" r:id="rId3" display="testchangepassword@gmail.com" xr:uid="{03257E09-AD8E-EF40-AA0A-B1EB8FEF60C4}"/>
+    <hyperlink ref="C5:C10" r:id="rId2" display="testchangepasswordbackend@gmail.com" xr:uid="{A85620C5-1244-F448-B7E1-38F1DC87E1C8}"/>
+    <hyperlink ref="C12:C38" r:id="rId3" display="testchangepasswordbackend@gmail.com" xr:uid="{89CD51C6-6C5E-BA45-BDEB-D3CFA85EDB46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3129,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD92308A-CB7B-7B41-82FA-7A29955FA184}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3170,10 +3176,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3187,10 +3193,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3198,38 +3204,38 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -3238,180 +3244,180 @@
         <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3424,7 +3430,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3457,150 +3463,150 @@
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/resources/DataProfileMenu.xlsx
+++ b/resources/DataProfileMenu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/G2Lab/FinalProject/QuotaAppTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0777473F-AA32-3F43-972C-F975A870C702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BF5408-62BF-8C45-AFB5-0DAB3FCA5901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
   </bookViews>
   <sheets>
     <sheet name="Edit User" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="138">
   <si>
     <t>password</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>+6281252930451</t>
+  </si>
+  <si>
+    <t>Wrong otp</t>
+  </si>
+  <si>
+    <t>Your otp length must be 4</t>
+  </si>
+  <si>
+    <t>Your Password doesnt match</t>
   </si>
 </sst>
 </file>
@@ -1312,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865360DB-CC0A-7D49-8F52-9B29FD828225}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1326,7 +1335,7 @@
     <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -1552,10 +1561,10 @@
         <v>52</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>59</v>
@@ -1880,23 +1889,23 @@
       <c r="I12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>52</v>
+      <c r="J12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1927,24 +1936,22 @@
       <c r="I13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="J13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
@@ -1974,23 +1981,23 @@
       <c r="I14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>52</v>
+      <c r="J14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2019,13 +2026,13 @@
         <v>57</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>59</v>
@@ -2068,23 +2075,23 @@
       <c r="I16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>52</v>
+      <c r="J16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2115,23 +2122,23 @@
       <c r="I17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>52</v>
+      <c r="J17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -2162,24 +2169,22 @@
       <c r="I18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="J18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
@@ -2209,23 +2214,23 @@
       <c r="I19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>52</v>
+      <c r="J19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -2256,24 +2261,22 @@
       <c r="I20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="J20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -2410,11 +2413,9 @@
         <v>31</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
@@ -2460,7 +2461,7 @@
         <v>50</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2507,7 +2508,7 @@
         <v>50</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2529,20 +2530,20 @@
       <c r="F26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>52</v>
+      <c r="G26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="L26" s="15" t="s">
         <v>59</v>
@@ -2576,20 +2577,20 @@
       <c r="F27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="4" t="s">
+      <c r="G27" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>58</v>
+      <c r="H27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>25</v>
@@ -2623,20 +2624,20 @@
       <c r="F28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="G28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>58</v>
+      <c r="H28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>94</v>
@@ -2670,20 +2671,20 @@
       <c r="F29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="4" t="s">
+      <c r="G29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>58</v>
+      <c r="H29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>29</v>
@@ -2717,20 +2718,20 @@
       <c r="F30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="G30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>58</v>
+      <c r="H30" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>31</v>
@@ -2764,20 +2765,20 @@
       <c r="F31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="G31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>58</v>
+      <c r="H31" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>33</v>
@@ -2811,20 +2812,20 @@
       <c r="F32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="G32" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>58</v>
+      <c r="H32" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>35</v>
@@ -2858,20 +2859,20 @@
       <c r="F33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="G33" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>58</v>
+      <c r="H33" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="L33" s="15" t="s">
         <v>59</v>
@@ -2905,20 +2906,20 @@
       <c r="F34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="G34" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>58</v>
+      <c r="H34" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="L34" s="15" t="s">
         <v>59</v>
@@ -2952,20 +2953,20 @@
       <c r="F35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="G35" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>58</v>
+      <c r="H35" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="L35" s="15" t="s">
         <v>59</v>
@@ -2999,20 +3000,20 @@
       <c r="F36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="4" t="s">
+      <c r="G36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>58</v>
+      <c r="H36" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="L36" s="15" t="s">
         <v>59</v>
@@ -3046,20 +3047,20 @@
       <c r="F37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="4" t="s">
+      <c r="G37" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>58</v>
+      <c r="H37" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="L37" s="15" t="s">
         <v>59</v>
@@ -3093,20 +3094,20 @@
       <c r="F38" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="G38" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="14" t="s">
-        <v>58</v>
+      <c r="H38" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="L38" s="15" t="s">
         <v>59</v>
@@ -3135,7 +3136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD92308A-CB7B-7B41-82FA-7A29955FA184}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/resources/DataProfileMenu.xlsx
+++ b/resources/DataProfileMenu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/G2Lab/FinalProject/QuotaAppTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BF5408-62BF-8C45-AFB5-0DAB3FCA5901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E09259-6E53-8543-8E01-0FEAB136CC1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
   </bookViews>
   <sheets>
     <sheet name="Edit User" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="139">
   <si>
     <t>password</t>
   </si>
@@ -422,24 +422,15 @@
     <t>+62ABCDEF30298</t>
   </si>
   <si>
-    <t>+6281252930399</t>
-  </si>
-  <si>
     <t xml:space="preserve">Your Full name must be all Alphabetic </t>
   </si>
   <si>
     <t>Length nama user must be less than 3 character</t>
   </si>
   <si>
-    <t>testchangepasswordbackend@gmail.com</t>
-  </si>
-  <si>
     <t>+6281252930396</t>
   </si>
   <si>
-    <t>+6281252930397</t>
-  </si>
-  <si>
     <t>+6281252930451</t>
   </si>
   <si>
@@ -450,6 +441,18 @@
   </si>
   <si>
     <t>Your Password doesnt match</t>
+  </si>
+  <si>
+    <t>+6281252930366</t>
+  </si>
+  <si>
+    <t>testchangepasswordbackend23@gmail.com</t>
+  </si>
+  <si>
+    <t>+6281252930367</t>
+  </si>
+  <si>
+    <t>+6281252930369</t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,7 +940,7 @@
     <col min="1" max="1" width="58.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="19"/>
@@ -1011,7 +1014,7 @@
         <v>123456789</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>110</v>
@@ -1031,7 +1034,7 @@
         <v>123456789</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>121</v>
@@ -1040,7 +1043,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1091,7 +1094,7 @@
         <v>72</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>110</v>
@@ -1111,7 +1114,7 @@
         <v>72</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>121</v>
@@ -1120,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1131,7 +1134,7 @@
         <v>111</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>121</v>
@@ -1140,7 +1143,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1151,7 +1154,7 @@
         <v>112</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>121</v>
@@ -1171,7 +1174,7 @@
         <v>113</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>121</v>
@@ -1180,7 +1183,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1191,7 +1194,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>110</v>
@@ -1321,15 +1324,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865360DB-CC0A-7D49-8F52-9B29FD828225}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="72.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -1446,7 +1449,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>50</v>
@@ -1490,7 +1493,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>105</v>
@@ -1537,10 +1540,10 @@
         <v>114</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -1576,7 +1579,7 @@
         <v>16</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1587,7 +1590,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>50</v>
@@ -1634,7 +1637,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>50</v>
@@ -1681,7 +1684,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>50</v>
@@ -1728,7 +1731,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>50</v>
@@ -1775,7 +1778,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>50</v>
@@ -1819,7 +1822,7 @@
         <v>61</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>105</v>
@@ -1866,10 +1869,10 @@
         <v>73</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
@@ -1905,7 +1908,7 @@
         <v>50</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1913,10 +1916,10 @@
         <v>76</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -1958,10 +1961,10 @@
         <v>77</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
@@ -1997,7 +2000,7 @@
         <v>50</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2005,10 +2008,10 @@
         <v>78</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
@@ -2044,7 +2047,7 @@
         <v>16</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2052,10 +2055,10 @@
         <v>79</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>16</v>
@@ -2091,7 +2094,7 @@
         <v>50</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2099,10 +2102,10 @@
         <v>81</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>16</v>
@@ -2138,7 +2141,7 @@
         <v>50</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -2146,10 +2149,10 @@
         <v>83</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>16</v>
@@ -2191,10 +2194,10 @@
         <v>84</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
@@ -2230,7 +2233,7 @@
         <v>50</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -2238,10 +2241,10 @@
         <v>76</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
@@ -2283,10 +2286,10 @@
         <v>86</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>16</v>
@@ -2322,7 +2325,7 @@
         <v>16</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2330,10 +2333,10 @@
         <v>64</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>16</v>
@@ -2377,10 +2380,10 @@
         <v>88</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>16</v>
@@ -2422,10 +2425,10 @@
         <v>89</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>16</v>
@@ -2461,7 +2464,7 @@
         <v>50</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2469,10 +2472,10 @@
         <v>90</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>16</v>
@@ -2508,7 +2511,7 @@
         <v>50</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2516,10 +2519,10 @@
         <v>91</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>16</v>
@@ -2555,7 +2558,7 @@
         <v>16</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2563,10 +2566,10 @@
         <v>92</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>16</v>
@@ -2610,10 +2613,10 @@
         <v>93</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>16</v>
@@ -2657,10 +2660,10 @@
         <v>95</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>16</v>
@@ -2704,10 +2707,10 @@
         <v>96</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>16</v>
@@ -2751,10 +2754,10 @@
         <v>97</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>16</v>
@@ -2798,10 +2801,10 @@
         <v>98</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>16</v>
@@ -2845,10 +2848,10 @@
         <v>99</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>16</v>
@@ -2892,10 +2895,10 @@
         <v>100</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>16</v>
@@ -2939,10 +2942,10 @@
         <v>101</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>16</v>
@@ -2986,10 +2989,10 @@
         <v>102</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>16</v>
@@ -3033,10 +3036,10 @@
         <v>103</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>16</v>
@@ -3080,10 +3083,10 @@
         <v>104</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>16</v>
@@ -3125,8 +3128,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{6083684D-03E3-F54A-946D-CCBA450E3CCB}"/>
-    <hyperlink ref="C5:C10" r:id="rId2" display="testchangepasswordbackend@gmail.com" xr:uid="{A85620C5-1244-F448-B7E1-38F1DC87E1C8}"/>
-    <hyperlink ref="C12:C38" r:id="rId3" display="testchangepasswordbackend@gmail.com" xr:uid="{89CD51C6-6C5E-BA45-BDEB-D3CFA85EDB46}"/>
+    <hyperlink ref="C5:C10" r:id="rId2" display="testchangepasswordbackend23@gmail.com" xr:uid="{C8F833A6-31FA-E443-A5AD-AA4188638A17}"/>
+    <hyperlink ref="C12:C38" r:id="rId3" display="testchangepasswordbackend23@gmail.com" xr:uid="{F0064317-D97A-9B4A-A287-F0878E0CF8C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3136,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD92308A-CB7B-7B41-82FA-7A29955FA184}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3205,7 +3208,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
@@ -3222,7 +3225,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -3231,7 +3234,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3324,7 +3327,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>25</v>
@@ -3341,7 +3344,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>27</v>
@@ -3358,7 +3361,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
@@ -3375,7 +3378,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>31</v>
@@ -3392,7 +3395,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>33</v>
@@ -3409,7 +3412,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>35</v>
@@ -3431,7 +3434,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3475,7 +3478,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>

--- a/resources/DataProfileMenu.xlsx
+++ b/resources/DataProfileMenu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/G2Lab/FinalProject/QuotaAppTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E09259-6E53-8543-8E01-0FEAB136CC1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0684915F-DB29-444F-8CF6-C4A50869B6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{57623300-8E2D-C54C-A558-4EEA7A09C665}"/>
   </bookViews>
   <sheets>
     <sheet name="Edit User" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="138">
   <si>
     <t>password</t>
   </si>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t>Length nama user must be less than 3 character</t>
-  </si>
-  <si>
-    <t>+6281252930396</t>
   </si>
   <si>
     <t>+6281252930451</t>
@@ -931,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9959BB-4BD4-1645-834F-8040D5B979C6}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,7 +1011,7 @@
         <v>123456789</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>110</v>
@@ -1034,7 +1031,7 @@
         <v>123456789</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>121</v>
@@ -1094,7 +1091,7 @@
         <v>72</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>110</v>
@@ -1114,7 +1111,7 @@
         <v>72</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>121</v>
@@ -1123,7 +1120,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1134,7 +1131,7 @@
         <v>111</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>121</v>
@@ -1154,7 +1151,7 @@
         <v>112</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>121</v>
@@ -1174,7 +1171,7 @@
         <v>113</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>121</v>
@@ -1194,7 +1191,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>110</v>
@@ -1260,7 +1257,7 @@
         <v>115</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F16" s="21"/>
     </row>
@@ -1278,7 +1275,7 @@
         <v>116</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F17" s="21"/>
     </row>
@@ -1296,7 +1293,7 @@
         <v>117</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F18" s="21"/>
     </row>
@@ -1324,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865360DB-CC0A-7D49-8F52-9B29FD828225}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1449,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>50</v>
@@ -1493,7 +1490,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>105</v>
@@ -1540,10 +1537,10 @@
         <v>114</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -1579,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1590,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>50</v>
@@ -1637,7 +1634,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>50</v>
@@ -1684,7 +1681,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>50</v>
@@ -1731,7 +1728,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>50</v>
@@ -1778,7 +1775,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>50</v>
@@ -1822,7 +1819,7 @@
         <v>61</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>105</v>
@@ -1869,10 +1866,10 @@
         <v>73</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
@@ -1908,7 +1905,7 @@
         <v>50</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1916,10 +1913,10 @@
         <v>76</v>
       </c>
       <c r="B13" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -1961,10 +1958,10 @@
         <v>77</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
@@ -2000,7 +1997,7 @@
         <v>50</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2008,10 +2005,10 @@
         <v>78</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
@@ -2047,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2055,10 +2052,10 @@
         <v>79</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>16</v>
@@ -2094,7 +2091,7 @@
         <v>50</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2102,10 +2099,10 @@
         <v>81</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>16</v>
@@ -2141,7 +2138,7 @@
         <v>50</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -2149,10 +2146,10 @@
         <v>83</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>16</v>
@@ -2194,10 +2191,10 @@
         <v>84</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
@@ -2233,7 +2230,7 @@
         <v>50</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -2241,10 +2238,10 @@
         <v>76</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
@@ -2286,10 +2283,10 @@
         <v>86</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>16</v>
@@ -2325,7 +2322,7 @@
         <v>16</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2333,10 +2330,10 @@
         <v>64</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>16</v>
@@ -2380,10 +2377,10 @@
         <v>88</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>16</v>
@@ -2425,10 +2422,10 @@
         <v>89</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>16</v>
@@ -2464,7 +2461,7 @@
         <v>50</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2472,10 +2469,10 @@
         <v>90</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>16</v>
@@ -2511,7 +2508,7 @@
         <v>50</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2519,10 +2516,10 @@
         <v>91</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>16</v>
@@ -2558,7 +2555,7 @@
         <v>16</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2566,10 +2563,10 @@
         <v>92</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>16</v>
@@ -2613,10 +2610,10 @@
         <v>93</v>
       </c>
       <c r="B28" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>16</v>
@@ -2660,10 +2657,10 @@
         <v>95</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>16</v>
@@ -2707,10 +2704,10 @@
         <v>96</v>
       </c>
       <c r="B30" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>16</v>
@@ -2754,10 +2751,10 @@
         <v>97</v>
       </c>
       <c r="B31" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>16</v>
@@ -2801,10 +2798,10 @@
         <v>98</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>16</v>
@@ -2848,10 +2845,10 @@
         <v>99</v>
       </c>
       <c r="B33" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>16</v>
@@ -2895,10 +2892,10 @@
         <v>100</v>
       </c>
       <c r="B34" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>16</v>
@@ -2942,10 +2939,10 @@
         <v>101</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>16</v>
@@ -2989,10 +2986,10 @@
         <v>102</v>
       </c>
       <c r="B36" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>16</v>
@@ -3036,10 +3033,10 @@
         <v>103</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>16</v>
@@ -3083,10 +3080,10 @@
         <v>104</v>
       </c>
       <c r="B38" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>16</v>
@@ -3139,7 +3136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD92308A-CB7B-7B41-82FA-7A29955FA184}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -3208,7 +3205,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
@@ -3225,7 +3222,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -3234,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3327,7 +3324,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>25</v>
@@ -3344,7 +3341,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>27</v>
@@ -3361,7 +3358,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
@@ -3378,7 +3375,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>31</v>
@@ -3395,7 +3392,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>33</v>
@@ -3412,7 +3409,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>35</v>
@@ -3478,7 +3475,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
